--- a/history.xlsx
+++ b/history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB285F4C-F110-4803-8C1B-33E5DB0198B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1999A691-788C-4265-8EB0-B8C9F955BD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>Kernel Size Experiment</t>
   </si>
@@ -116,36 +116,18 @@
     <t>no_aug</t>
   </si>
   <si>
-    <t>CSIRO Biomass CNN: Optimized Strategy</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
     <t>Optimal Selection</t>
   </si>
   <si>
-    <t>Reasoning &amp; Impact</t>
-  </si>
-  <si>
-    <t>Medium Augmentation</t>
-  </si>
-  <si>
-    <t>Architecture Depth</t>
-  </si>
-  <si>
-    <t>2–3 Conv Blocks</t>
-  </si>
-  <si>
     <t>Kernel Size</t>
   </si>
   <si>
     <t>Regularization</t>
   </si>
   <si>
-    <t>Dropout 0.6 + WD 0.0001</t>
-  </si>
-  <si>
     <t>5 times 5</t>
   </si>
   <si>
@@ -155,21 +137,6 @@
     <t>3 times 3</t>
   </si>
   <si>
-    <t>Highest Avg Val R^2 (0.112); far superior to "No Augmentation" which yielded negative R^2.</t>
-  </si>
-  <si>
-    <t>Provided the most stable validation performance; 4+ blocks caused severe overfitting and loss of R^2.</t>
-  </si>
-  <si>
-    <t>Crucial for generalization; high dropout was the top-performing configuration for validation R^2.</t>
-  </si>
-  <si>
-    <t>5 times 5 Kernels</t>
-  </si>
-  <si>
-    <t>Best balance of stability (Avg Val Loss 0.132); 3 times 3 has potential but higher variance.</t>
-  </si>
-  <si>
     <t>Base Model Performance Summary</t>
   </si>
   <si>
@@ -194,13 +161,133 @@
     <t>Final Val R^2</t>
   </si>
   <si>
-    <t>Optimized Model Value</t>
-  </si>
-  <si>
     <t>Avg Train R^2</t>
   </si>
   <si>
     <t>Avg Val R^2</t>
+  </si>
+  <si>
+    <t>Final Summary Metrics</t>
+  </si>
+  <si>
+    <t>Significance</t>
+  </si>
+  <si>
+    <t>Robust training convergence.</t>
+  </si>
+  <si>
+    <t>Efficient error minimization on validation sets.</t>
+  </si>
+  <si>
+    <t>Stable baseline training performance.</t>
+  </si>
+  <si>
+    <t>Positive average generalization across all folds.</t>
+  </si>
+  <si>
+    <t>Optimized Architecture Strategy</t>
+  </si>
+  <si>
+    <t>Reasoning from Experiments</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>3 Conv Blocks</t>
+  </si>
+  <si>
+    <t>Dropout 0.6</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>Adam + 0.0 WD</t>
+  </si>
+  <si>
+    <t>Light/Medium</t>
+  </si>
+  <si>
+    <t>Training &amp; Performance Benchmark</t>
+  </si>
+  <si>
+    <t>Metric,Optimized Baseline Value</t>
+  </si>
+  <si>
+    <t>Number of Parameters,~1.5M (approx. for 256 filters)</t>
+  </si>
+  <si>
+    <t>Avg Training Loss,0.15376</t>
+  </si>
+  <si>
+    <t>Avg Validation Loss,0.12544</t>
+  </si>
+  <si>
+    <t>Final Train R2,0.15202</t>
+  </si>
+  <si>
+    <t>Final Val R2,0.03891</t>
+  </si>
+  <si>
+    <t>Max R2 Achieved,0.32011</t>
+  </si>
+  <si>
+    <r>
+      <t>Peak Potential:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The highest variance explained in a single run.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Best Balance:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Maintained the lowest validation loss (0.120) while capturing complex features.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Critical:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> High dropout was essential to stop the model from overfitting on small biomass samples.</t>
+    </r>
+  </si>
+  <si>
+    <t>Top Performer: Achieved the highest individual R^2 potential (0.238–0.320).</t>
+  </si>
+  <si>
+    <t>Winner: Weight Decay of 0.0 combined with high dropout yielded the best validation R^2.</t>
+  </si>
+  <si>
+    <t>Stability: Required to maintain positive R^2 values and reduce validation variance.</t>
   </si>
 </sst>
 </file>
@@ -538,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +728,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
         <v>0.15539700000000001</v>
@@ -688,7 +775,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>0.15524199999999999</v>
@@ -735,7 +822,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <v>0.147953</v>
@@ -1048,138 +1135,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7C7663-0FEB-406E-A171-49AAA11C7D81}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.15376000000000001</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.12544</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.15201999999999999</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.891E-2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.32011000000000001</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.170016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.12705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4.4748000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3.8008E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.165773</v>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1202,7 +1361,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1210,18 +1369,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.2515</v>
@@ -1232,7 +1391,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.1007</v>
@@ -1243,7 +1402,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0.34749999999999998</v>
@@ -1254,7 +1413,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0.17799999999999999</v>

--- a/history.xlsx
+++ b/history.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\image to biomass\CSIRO-image-to-biaomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1999A691-788C-4265-8EB0-B8C9F955BD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD05FBF-599F-4F4A-B6ED-0770D8D50EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
     <sheet name="opt" sheetId="2" r:id="rId2"/>
-    <sheet name="base model" sheetId="3" r:id="rId3"/>
+    <sheet name="DinoV2" sheetId="4" r:id="rId3"/>
+    <sheet name="base model" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Kernel Size Experiment</t>
   </si>
@@ -288,6 +289,45 @@
   </si>
   <si>
     <t>Stability: Required to maintain positive R^2 values and reduce validation variance.</t>
+  </si>
+  <si>
+    <t>Summary of Model Performance</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Average Weighted R2</t>
+  </si>
+  <si>
+    <t>Standard Deviation (±)</t>
+  </si>
+  <si>
+    <t>CatBoost</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>Detailed Fold-by-Fold Results</t>
+  </si>
+  <si>
+    <t>Fold 1</t>
+  </si>
+  <si>
+    <t>Fold 2</t>
+  </si>
+  <si>
+    <t>Fold 3</t>
+  </si>
+  <si>
+    <t>Fold 4</t>
+  </si>
+  <si>
+    <t>Fold 5</t>
   </si>
 </sst>
 </file>
@@ -331,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -341,6 +381,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1138,7 +1181,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,6 +1388,165 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C33719-5FCE-41B9-8D77-27259FD01CC7}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.62890000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.58069999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.71060000000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.62370000000000003</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.56820000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.51690000000000003</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.50460000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.55389999999999995</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.61909999999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.68730000000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.6492</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.56040000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEACE75-0419-415A-80EF-B9DC6C857D1E}">
   <dimension ref="A1:D6"/>
   <sheetViews>

--- a/history.xlsx
+++ b/history.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\image to biomass\CSIRO-image-to-biaomass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD05FBF-599F-4F4A-B6ED-0770D8D50EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1999A691-788C-4265-8EB0-B8C9F955BD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
     <sheet name="opt" sheetId="2" r:id="rId2"/>
-    <sheet name="DinoV2" sheetId="4" r:id="rId3"/>
-    <sheet name="base model" sheetId="3" r:id="rId4"/>
+    <sheet name="base model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>Kernel Size Experiment</t>
   </si>
@@ -289,45 +288,6 @@
   </si>
   <si>
     <t>Stability: Required to maintain positive R^2 values and reduce validation variance.</t>
-  </si>
-  <si>
-    <t>Summary of Model Performance</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Average Weighted R2</t>
-  </si>
-  <si>
-    <t>Standard Deviation (±)</t>
-  </si>
-  <si>
-    <t>CatBoost</t>
-  </si>
-  <si>
-    <t>LightGBM</t>
-  </si>
-  <si>
-    <t>XGBoost</t>
-  </si>
-  <si>
-    <t>Detailed Fold-by-Fold Results</t>
-  </si>
-  <si>
-    <t>Fold 1</t>
-  </si>
-  <si>
-    <t>Fold 2</t>
-  </si>
-  <si>
-    <t>Fold 3</t>
-  </si>
-  <si>
-    <t>Fold 4</t>
-  </si>
-  <si>
-    <t>Fold 5</t>
   </si>
 </sst>
 </file>
@@ -371,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,9 +341,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1181,7 +1138,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,165 +1345,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C33719-5FCE-41B9-8D77-27259FD01CC7}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="F1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.62890000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.58069999999999999</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.60719999999999996</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.71060000000000001</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.62370000000000003</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.56820000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.61809999999999998</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5.0200000000000002E-2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.53190000000000004</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.51690000000000003</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.50460000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.55389999999999995</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.61909999999999998</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.62849999999999995</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.68730000000000002</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.6492</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.56040000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEACE75-0419-415A-80EF-B9DC6C857D1E}">
   <dimension ref="A1:D6"/>
   <sheetViews>

--- a/history.xlsx
+++ b/history.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\image to biomass\CSIRO-image-to-biaomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1999A691-788C-4265-8EB0-B8C9F955BD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E228C9-C5F1-48DD-85CD-8AE27BA94169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
-    <sheet name="opt" sheetId="2" r:id="rId2"/>
-    <sheet name="base model" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="opt" sheetId="2" r:id="rId3"/>
+    <sheet name="base model" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
   <si>
     <t>Kernel Size Experiment</t>
   </si>
@@ -289,12 +290,153 @@
   <si>
     <t>Stability: Required to maintain positive R^2 values and reduce validation variance.</t>
   </si>
+  <si>
+    <t>Summary Comparison Table</t>
+  </si>
+  <si>
+    <t>Model Stage</t>
+  </si>
+  <si>
+    <t>Baseline CNN</t>
+  </si>
+  <si>
+    <t>Optimized CNN</t>
+  </si>
+  <si>
+    <t>DINOv2 + XGBoost</t>
+  </si>
+  <si>
+    <t>DINOv2 + LightGBM</t>
+  </si>
+  <si>
+    <t>DINOv2 + CatBoost</t>
+  </si>
+  <si>
+    <t>Best/Avg Validation Weighted R2</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Key Details &amp; Components</t>
+  </si>
+  <si>
+    <t>Problem Definition</t>
+  </si>
+  <si>
+    <t>Data Prep &amp; Setup</t>
+  </si>
+  <si>
+    <t>Target Scaling</t>
+  </si>
+  <si>
+    <t>Success Metrics</t>
+  </si>
+  <si>
+    <t>Data Pipeline</t>
+  </si>
+  <si>
+    <t>Baseline Model</t>
+  </si>
+  <si>
+    <t>Loss Function</t>
+  </si>
+  <si>
+    <t>Training Loop</t>
+  </si>
+  <si>
+    <t>Inference Pipeline</t>
+  </si>
+  <si>
+    <t>Architecture Tests</t>
+  </si>
+  <si>
+    <t>Test varying block depths (2-5 blocks) and kernel sizes (3x3, 5x5, 7x7).</t>
+  </si>
+  <si>
+    <t>Advanced Features</t>
+  </si>
+  <si>
+    <t>Optimized Training</t>
+  </si>
+  <si>
+    <t>GBM Cross-Val</t>
+  </si>
+  <si>
+    <t>Serialization</t>
+  </si>
+  <si>
+    <t>Visualizations</t>
+  </si>
+  <si>
+    <t>Define regression targets: Dry_Green_g, Dry_Dead_g, Dry_Clover_g, GDM_g, and Dry_Total_g.</t>
+  </si>
+  <si>
+    <t>Set SEED = 42 for reproducibility; Pivot raw data from long to wide format.</t>
+  </si>
+  <si>
+    <t>Fit a StandardScaler to training labels to normalize regression targets.</t>
+  </si>
+  <si>
+    <t>Create BiomassDataset class and DataLoader for image loading and normalization.</t>
+  </si>
+  <si>
+    <t>Build initial BiomassCNN with 3 sequential convolutional blocks and a linear regressor.</t>
+  </si>
+  <si>
+    <t>Set up WeightedMSELoss to prioritize key target variables during training.</t>
+  </si>
+  <si>
+    <t>Create inference script to generate submission.csv with negative values clamped to zero.</t>
+  </si>
+  <si>
+    <t>Conduct grid search for Dropout (up to 0.6) and Weight Decay configurations.</t>
+  </si>
+  <si>
+    <t>Transition to DINOv2 dense feature extraction using patch-based embeddings.</t>
+  </si>
+  <si>
+    <t>Save best_model_weights.pth and export target_scaler.pkl using joblib.</t>
+  </si>
+  <si>
+    <t>Week 1: Foundation &amp; Planning</t>
+  </si>
+  <si>
+    <t>Estimated Hours</t>
+  </si>
+  <si>
+    <t>Week 2: Model Development</t>
+  </si>
+  <si>
+    <t>Week 3: Experimentation</t>
+  </si>
+  <si>
+    <t>Implement and test "Medium Augmentation" including flips, rotation, and jitter.</t>
+  </si>
+  <si>
+    <t>Week 4: Polish &amp; Finalize</t>
+  </si>
+  <si>
+    <t>Train the OptimizedCNN using 3 blocks, 3x3 kernels, and 0.6 dropout.</t>
+  </si>
+  <si>
+    <t>Implement Weighted R^2 Score with specific competition weights.</t>
+  </si>
+  <si>
+    <t>Develop run_epoch function to track both Training and Validation Loss and R^2.</t>
+  </si>
+  <si>
+    <t>Train evaluate LightGBM, XGBoost, and CatBoost on DINOv2 features using 5-fold CV.</t>
+  </si>
+  <si>
+    <t>Generate Loss R^2 curves and model comparison bar charts.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +451,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -331,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -341,6 +496,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -625,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,8 +801,8 @@
     <col min="4" max="4" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
@@ -929,6 +1093,10 @@
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="N8" s="2" t="s">
         <v>16</v>
       </c>
@@ -955,6 +1123,12 @@
       <c r="D9" s="2">
         <v>0.120532</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="N9" s="2" t="s">
         <v>17</v>
       </c>
@@ -981,6 +1155,12 @@
       <c r="D10" s="2">
         <v>0.131189</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.2515</v>
+      </c>
       <c r="N10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1007,6 +1187,12 @@
       <c r="D11" s="2">
         <v>0.12731500000000001</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.3201</v>
+      </c>
       <c r="N11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1033,6 +1219,12 @@
       <c r="D12" s="2">
         <v>0.14028299999999999</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.55389999999999995</v>
+      </c>
       <c r="N12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1047,6 +1239,12 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.61809999999999998</v>
+      </c>
       <c r="N13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1061,6 +1259,12 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.62890000000000001</v>
+      </c>
       <c r="N14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1075,14 +1279,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:D12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1094,7 +1299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F5">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1106,7 +1311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:L6">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1118,7 +1323,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:Q14">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H14">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1134,6 +1351,296 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38041C66-6A6D-49FA-925B-485A83619C4C}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A26:C26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7C7663-0FEB-406E-A171-49AAA11C7D81}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -1344,7 +1851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEACE75-0419-415A-80EF-B9DC6C857D1E}">
   <dimension ref="A1:D6"/>
   <sheetViews>

--- a/history.xlsx
+++ b/history.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\image to biomass\CSIRO-image-to-biaomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E228C9-C5F1-48DD-85CD-8AE27BA94169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288436FF-D11D-40A2-BA9D-E19059AA5BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="plan" sheetId="4" r:id="rId2"/>
     <sheet name="opt" sheetId="2" r:id="rId3"/>
     <sheet name="base model" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -495,13 +495,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -821,27 +821,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1061,12 +1061,12 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="N7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1093,10 +1093,10 @@
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="6"/>
       <c r="N8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1300,6 +1300,18 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F5">
     <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H14">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1334,18 +1346,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H14">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1360,272 +1360,272 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1657,11 +1657,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1730,11 +1730,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1867,11 +1867,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/history.xlsx
+++ b/history.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\image to biomass\CSIRO-image-to-biaomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288436FF-D11D-40A2-BA9D-E19059AA5BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D06A2B2-863D-4F6A-935B-68095D8307BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
     <sheet name="plan" sheetId="4" r:id="rId2"/>
-    <sheet name="opt" sheetId="2" r:id="rId3"/>
+    <sheet name="opt_CNN" sheetId="2" r:id="rId3"/>
     <sheet name="base model" sheetId="3" r:id="rId4"/>
+    <sheet name="DinoV2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="146">
   <si>
     <t>Kernel Size Experiment</t>
   </si>
@@ -291,30 +292,9 @@
     <t>Stability: Required to maintain positive R^2 values and reduce validation variance.</t>
   </si>
   <si>
-    <t>Summary Comparison Table</t>
-  </si>
-  <si>
     <t>Model Stage</t>
   </si>
   <si>
-    <t>Baseline CNN</t>
-  </si>
-  <si>
-    <t>Optimized CNN</t>
-  </si>
-  <si>
-    <t>DINOv2 + XGBoost</t>
-  </si>
-  <si>
-    <t>DINOv2 + LightGBM</t>
-  </si>
-  <si>
-    <t>DINOv2 + CatBoost</t>
-  </si>
-  <si>
-    <t>Best/Avg Validation Weighted R2</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -430,6 +410,99 @@
   </si>
   <si>
     <t>Generate Loss R^2 curves and model comparison bar charts.</t>
+  </si>
+  <si>
+    <t>Architecture Type</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Custom CNN</t>
+  </si>
+  <si>
+    <t>Optimized</t>
+  </si>
+  <si>
+    <t>DINOv2-XG</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>DINOv2-LGBM</t>
+  </si>
+  <si>
+    <t>DINOv2-Cat</t>
+  </si>
+  <si>
+    <t>Model Benchmarking (The Primary Comparison)</t>
+  </si>
+  <si>
+    <t>Backbone</t>
+  </si>
+  <si>
+    <t>Regressor</t>
+  </si>
+  <si>
+    <t>Best Validation Weighted R2</t>
+  </si>
+  <si>
+    <t>Improvement over Baseline</t>
+  </si>
+  <si>
+    <t>3-Block CNN</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Linear (0.6 Dropout)</t>
+  </si>
+  <si>
+    <t>DINOv2 (Frozen)</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>CatBoost</t>
+  </si>
+  <si>
+    <t>Target-Specific Performance Breakdown</t>
+  </si>
+  <si>
+    <t>Target Name</t>
+  </si>
+  <si>
+    <t>Comp. Weight</t>
+  </si>
+  <si>
+    <t>Individual R2</t>
+  </si>
+  <si>
+    <t>Weighted Contribution</t>
+  </si>
+  <si>
+    <t>Dry_Green_g</t>
+  </si>
+  <si>
+    <t>Dry_Dead_g</t>
+  </si>
+  <si>
+    <t>Dry_Clover_g</t>
+  </si>
+  <si>
+    <t>GDM_g</t>
+  </si>
+  <si>
+    <t>Dry_Total_g</t>
+  </si>
+  <si>
+    <t>Total Weighted R^2</t>
   </si>
 </sst>
 </file>
@@ -486,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -505,6 +578,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -790,7 +866,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H10" sqref="G8:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,10 +1169,6 @@
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="6"/>
       <c r="N8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1123,12 +1195,6 @@
       <c r="D9" s="2">
         <v>0.120532</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="N9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1155,12 +1221,6 @@
       <c r="D10" s="2">
         <v>0.131189</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.2515</v>
-      </c>
       <c r="N10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1187,12 +1247,6 @@
       <c r="D11" s="2">
         <v>0.12731500000000001</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.3201</v>
-      </c>
       <c r="N11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1219,12 +1273,6 @@
       <c r="D12" s="2">
         <v>0.14028299999999999</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.55389999999999995</v>
-      </c>
       <c r="N12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1239,12 +1287,6 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.61809999999999998</v>
-      </c>
       <c r="N13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1259,12 +1301,6 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.62890000000000001</v>
-      </c>
       <c r="N14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1279,12 +1315,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:D12">
     <cfRule type="colorScale" priority="2">
@@ -1300,18 +1335,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F5">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H14">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1354,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38041C66-6A6D-49FA-925B-485A83619C4C}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1369,28 +1392,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -1398,10 +1421,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -1409,10 +1432,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -1420,10 +1443,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -1431,10 +1454,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -1445,28 +1468,28 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
@@ -1474,10 +1497,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
@@ -1485,10 +1508,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5">
         <v>6</v>
@@ -1496,10 +1519,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C15" s="5">
         <v>4</v>
@@ -1507,28 +1530,28 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C20" s="5">
         <v>8</v>
@@ -1539,7 +1562,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C21" s="5">
         <v>6</v>
@@ -1550,7 +1573,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
@@ -1558,10 +1581,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C23" s="5">
         <v>8</v>
@@ -1569,28 +1592,28 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C28" s="5">
         <v>6</v>
@@ -1598,10 +1621,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C29" s="5">
         <v>8</v>
@@ -1609,10 +1632,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
@@ -1620,10 +1643,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C31" s="5">
         <v>4</v>
@@ -1645,7 +1668,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,7 +1879,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,4 +1958,304 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F57C08C-F147-4444-A197-62543B04423B}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.2515</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.3201</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.55389999999999995</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.62890000000000001</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.5009999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.8200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.9099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.12839999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.34749999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.62870000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:B7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:D16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>